--- a/public/demo/importcity.xlsx
+++ b/public/demo/importcity.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>设备码</t>
     <rPh sb="0" eb="1">
@@ -90,6 +90,36 @@
     <t>大同市</t>
     <rPh sb="0" eb="1">
       <t>da'tong'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <rPh sb="0" eb="1">
+      <t>she'bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱车1号</t>
+    <rPh sb="0" eb="1">
+      <t>ai'che</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱车2号</t>
+    <rPh sb="0" eb="1">
+      <t>ai'che</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +459,7 @@
     <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +472,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>867599596884</v>
       </c>
@@ -456,8 +489,11 @@
       <c r="D2">
         <v>123456890</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>926086052734</v>
       </c>
@@ -467,13 +503,13 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>234654321</v>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>867599596885</v>
+        <v>924802048180</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
